--- a/inst/extdata/edmonton_lang.xlsx
+++ b/inst/extdata/edmonton_lang.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -30,6 +31,657 @@
   </si>
   <si>
     <t xml:space="preserve">lang_known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginal languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginal languages, n.o.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Official &amp; Non-Aboriginal languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrikaans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afro-Asiatic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akan (Twi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algonquian languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algonquin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Sign Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amharic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assyrian Neo-Aramaic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athabaskan languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atikamekw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austro-Asiatic languages, n.i.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austronesian languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babine (Wetsuwet'en)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamanankan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarusan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berber languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bikol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackfoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burmese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantonese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayuga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cebuano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaldean Neo-Aramaic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilcotin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese, n.o.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cree, n.o.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creole languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creole, n.o.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cushitic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dogrib (Tlicho)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dravidian languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fijian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frisian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulah (Pular, Pulaar, Fulfulde)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germanic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitxsan (Gitksan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujarati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwich'in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haisla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haitian Creole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halkomelem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heiltsuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiligaynon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmong-Mien languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icelandic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilocano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indo-Iranian languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inuinnaqtun (Inuvialuktun)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inuit languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inuktitut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iroquoian languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italic (Romance) languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kannada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karenic languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashmiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaska (Nahani)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khmer (Cambodian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinyarwanda (Rwanda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konkani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurdish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutenai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwakiutl (Kwak'wala)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillooet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malagasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malayalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malecite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maltese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi'kmaq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Nan (Chaochow, Teochow, Fukien, Taiwanese)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montagnais (Innu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moose Cree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naskapi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger-Congo languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilo-Saharan languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisga'a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Slavey (Hare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern East Cree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Tutchone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuu-chah-nulth (Nootka)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oji-Cree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojibway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oneida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriya (Odia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oromo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ottawa (Odawa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pampangan (Kapampangan, Pampango)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pangasinan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pashto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persian (Farsi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plains Cree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punjabi (Panjabi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quebec Sign Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rundi (Kirundi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salish languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarsi (Sarcee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottish Gaelic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semitic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbo-Croatian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuswap (Secwepemctsin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign languages, n.i.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinhala (Sinhalese)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siouan languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavey, n.o.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovene (Slovenian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Slavey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern East Cree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Tutchone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squamish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swampy Cree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagalog (Pilipino, Filipino)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahltan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tai-Kadai languages, n.i.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thompson (Ntlakapamux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibetan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibeto-Burman languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigrigna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlingit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsimshian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukrainian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uralic languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uyghur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnamese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlaams (Flemish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wakashan languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waray-Waray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woods Cree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu (Shanghainese)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yiddish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoruba</t>
   </si>
 </sst>
 </file>
@@ -395,4 +1047,4318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>575</v>
+      </c>
+      <c r="D3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>885</v>
+      </c>
+      <c r="D5" t="n">
+        <v>445</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>770</v>
+      </c>
+      <c r="D6" t="n">
+        <v>370</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>180</v>
+      </c>
+      <c r="D9" t="n">
+        <v>190</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2515</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1695</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10590</v>
+      </c>
+      <c r="E11" t="n">
+        <v>325</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28265</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>170</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>285</v>
+      </c>
+      <c r="D17" t="n">
+        <v>85</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>120</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2335</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1460</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
+        <v>55</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>110</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>245</v>
+      </c>
+      <c r="D26" t="n">
+        <v>210</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="n">
+        <v>715</v>
+      </c>
+      <c r="D28" t="n">
+        <v>305</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="n">
+        <v>480</v>
+      </c>
+      <c r="D29" t="n">
+        <v>290</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="n">
+        <v>145</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="n">
+        <v>22670</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14695</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D35" t="n">
+        <v>810</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D42" t="n">
+        <v>330</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="n">
+        <v>345</v>
+      </c>
+      <c r="D43" t="n">
+        <v>145</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="n">
+        <v>615</v>
+      </c>
+      <c r="D44" t="n">
+        <v>380</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D45" t="n">
+        <v>895</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="n">
+        <v>895</v>
+      </c>
+      <c r="D47" t="n">
+        <v>255</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="n">
+        <v>65</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="n">
+        <v>745</v>
+      </c>
+      <c r="D49" t="n">
+        <v>45</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="n">
+        <v>145</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="n">
+        <v>335</v>
+      </c>
+      <c r="D51" t="n">
+        <v>205</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4100</v>
+      </c>
+      <c r="D54" t="n">
+        <v>275</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="n">
+        <v>140</v>
+      </c>
+      <c r="D55" t="n">
+        <v>35</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="n">
+        <v>930405</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1050410</v>
+      </c>
+      <c r="E56" t="n">
+        <v>792700</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1275265</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="n">
+        <v>45</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="n">
+        <v>125</v>
+      </c>
+      <c r="D58" t="n">
+        <v>40</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="n">
+        <v>55</v>
+      </c>
+      <c r="D59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="n">
+        <v>230</v>
+      </c>
+      <c r="D60" t="n">
+        <v>30</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="n">
+        <v>27100</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10950</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2520</v>
+      </c>
+      <c r="F61" t="n">
+        <v>96065</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="n">
+        <v>95</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="n">
+        <v>140</v>
+      </c>
+      <c r="D63" t="n">
+        <v>55</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="n">
+        <v>65</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="n">
+        <v>210</v>
+      </c>
+      <c r="D65" t="n">
+        <v>80</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="n">
+        <v>70</v>
+      </c>
+      <c r="D66" t="n">
+        <v>55</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14760</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2315</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20990</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D70" t="n">
+        <v>375</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5750</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3650</v>
+      </c>
+      <c r="E71" t="n">
+        <v>60</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="n">
+        <v>55</v>
+      </c>
+      <c r="D75" t="n">
+        <v>40</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="n">
+        <v>625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>215</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="n">
+        <v>165</v>
+      </c>
+      <c r="D78" t="n">
+        <v>110</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="n">
+        <v>405</v>
+      </c>
+      <c r="D79" t="n">
+        <v>190</v>
+      </c>
+      <c r="E79" t="n">
+        <v>20</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="n">
+        <v>530</v>
+      </c>
+      <c r="D81" t="n">
+        <v>195</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8415</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5095</v>
+      </c>
+      <c r="E82" t="n">
+        <v>105</v>
+      </c>
+      <c r="F82" t="n">
+        <v>27470</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D84" t="n">
+        <v>475</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="n">
+        <v>305</v>
+      </c>
+      <c r="D86" t="n">
+        <v>80</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D87" t="n">
+        <v>605</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="n">
+        <v>280</v>
+      </c>
+      <c r="D88" t="n">
+        <v>115</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="n">
+        <v>20</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="n">
+        <v>40</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4915</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1405</v>
+      </c>
+      <c r="E93" t="n">
+        <v>15</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8385</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D95" t="n">
+        <v>480</v>
+      </c>
+      <c r="E95" t="n">
+        <v>35</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="n">
+        <v>75</v>
+      </c>
+      <c r="D96" t="n">
+        <v>50</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="n">
+        <v>205</v>
+      </c>
+      <c r="D97" t="n">
+        <v>80</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="n">
+        <v>435</v>
+      </c>
+      <c r="D98" t="n">
+        <v>360</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="n">
+        <v>20</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" t="n">
+        <v>760</v>
+      </c>
+      <c r="D101" t="n">
+        <v>385</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="n">
+        <v>610</v>
+      </c>
+      <c r="D102" t="n">
+        <v>285</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="n">
+        <v>150</v>
+      </c>
+      <c r="D103" t="n">
+        <v>35</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6325</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4565</v>
+      </c>
+      <c r="E104" t="n">
+        <v>260</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="n">
+        <v>755</v>
+      </c>
+      <c r="D105" t="n">
+        <v>375</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15</v>
+      </c>
+      <c r="F105" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="n">
+        <v>385</v>
+      </c>
+      <c r="D108" t="n">
+        <v>190</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" t="n">
+        <v>145</v>
+      </c>
+      <c r="D109" t="n">
+        <v>55</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="n">
+        <v>160</v>
+      </c>
+      <c r="D111" t="n">
+        <v>45</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="n">
+        <v>175</v>
+      </c>
+      <c r="D112" t="n">
+        <v>70</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" t="n">
+        <v>180</v>
+      </c>
+      <c r="D113" t="n">
+        <v>90</v>
+      </c>
+      <c r="E113" t="n">
+        <v>10</v>
+      </c>
+      <c r="F113" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="n">
+        <v>10</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="n">
+        <v>510</v>
+      </c>
+      <c r="D115" t="n">
+        <v>135</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3455</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2330</v>
+      </c>
+      <c r="E116" t="n">
+        <v>10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" t="n">
+        <v>30</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" t="n">
+        <v>19925</v>
+      </c>
+      <c r="D119" t="n">
+        <v>14725</v>
+      </c>
+      <c r="E119" t="n">
+        <v>710</v>
+      </c>
+      <c r="F119" t="n">
+        <v>28215</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" t="n">
+        <v>535</v>
+      </c>
+      <c r="D120" t="n">
+        <v>335</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" t="n">
+        <v>10</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" t="n">
+        <v>70</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D124" t="n">
+        <v>555</v>
+      </c>
+      <c r="E124" t="n">
+        <v>20</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" t="n">
+        <v>85</v>
+      </c>
+      <c r="D126" t="n">
+        <v>45</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1395</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D131" t="n">
+        <v>495</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" t="n">
+        <v>410</v>
+      </c>
+      <c r="D132" t="n">
+        <v>165</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" t="n">
+        <v>210</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" t="n">
+        <v>90</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="n">
+        <v>70</v>
+      </c>
+      <c r="D143" t="n">
+        <v>35</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D144" t="n">
+        <v>885</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" t="n">
+        <v>235</v>
+      </c>
+      <c r="D145" t="n">
+        <v>75</v>
+      </c>
+      <c r="E145" t="n">
+        <v>10</v>
+      </c>
+      <c r="F145" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" t="n">
+        <v>340</v>
+      </c>
+      <c r="D147" t="n">
+        <v>130</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" t="n">
+        <v>110</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149" t="n">
+        <v>660</v>
+      </c>
+      <c r="D149" t="n">
+        <v>430</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4920</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3220</v>
+      </c>
+      <c r="E150" t="n">
+        <v>55</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" t="n">
+        <v>350</v>
+      </c>
+      <c r="D151" t="n">
+        <v>55</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9380</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3805</v>
+      </c>
+      <c r="E152" t="n">
+        <v>120</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4625</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E153" t="n">
+        <v>45</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" t="n">
+        <v>27785</v>
+      </c>
+      <c r="D154" t="n">
+        <v>20650</v>
+      </c>
+      <c r="E154" t="n">
+        <v>975</v>
+      </c>
+      <c r="F154" t="n">
+        <v>36190</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2540</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" t="n">
+        <v>400</v>
+      </c>
+      <c r="D157" t="n">
+        <v>195</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5725</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3260</v>
+      </c>
+      <c r="E158" t="n">
+        <v>75</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9245</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" t="n">
+        <v>50</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" t="n">
+        <v>80</v>
+      </c>
+      <c r="D163" t="n">
+        <v>55</v>
+      </c>
+      <c r="E163" t="n">
+        <v>50</v>
+      </c>
+      <c r="F163" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E164" t="n">
+        <v>10</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" t="n">
+        <v>360</v>
+      </c>
+      <c r="D165" t="n">
+        <v>120</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" t="n">
+        <v>570</v>
+      </c>
+      <c r="D166" t="n">
+        <v>215</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" t="n">
+        <v>210</v>
+      </c>
+      <c r="D168" t="n">
+        <v>285</v>
+      </c>
+      <c r="E168" t="n">
+        <v>45</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="n">
+        <v>940</v>
+      </c>
+      <c r="D169" t="n">
+        <v>460</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1310</v>
+      </c>
+      <c r="D170" t="n">
+        <v>780</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" t="n">
+        <v>10</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" t="n">
+        <v>95</v>
+      </c>
+      <c r="D173" t="n">
+        <v>25</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" t="n">
+        <v>610</v>
+      </c>
+      <c r="D174" t="n">
+        <v>170</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15</v>
+      </c>
+      <c r="F174" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" t="n">
+        <v>290</v>
+      </c>
+      <c r="D175" t="n">
+        <v>65</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6510</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4740</v>
+      </c>
+      <c r="E176" t="n">
+        <v>55</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" t="n">
+        <v>25</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180" t="n">
+        <v>18470</v>
+      </c>
+      <c r="D180" t="n">
+        <v>10880</v>
+      </c>
+      <c r="E180" t="n">
+        <v>405</v>
+      </c>
+      <c r="F180" t="n">
+        <v>33180</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" t="n">
+        <v>155</v>
+      </c>
+      <c r="D182" t="n">
+        <v>25</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D184" t="n">
+        <v>585</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="n">
+        <v>25</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>193</v>
+      </c>
+      <c r="C186" t="n">
+        <v>265</v>
+      </c>
+      <c r="D186" t="n">
+        <v>65</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" t="n">
+        <v>36755</v>
+      </c>
+      <c r="D187" t="n">
+        <v>20765</v>
+      </c>
+      <c r="E187" t="n">
+        <v>305</v>
+      </c>
+      <c r="F187" t="n">
+        <v>50715</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2175</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E190" t="n">
+        <v>15</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191" t="n">
+        <v>935</v>
+      </c>
+      <c r="D191" t="n">
+        <v>555</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192" t="n">
+        <v>625</v>
+      </c>
+      <c r="D192" t="n">
+        <v>285</v>
+      </c>
+      <c r="E192" t="n">
+        <v>30</v>
+      </c>
+      <c r="F192" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>201</v>
+      </c>
+      <c r="C194" t="n">
+        <v>20</v>
+      </c>
+      <c r="D194" t="n">
+        <v>20</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195" t="n">
+        <v>100</v>
+      </c>
+      <c r="D195" t="n">
+        <v>60</v>
+      </c>
+      <c r="E195" t="n">
+        <v>10</v>
+      </c>
+      <c r="F195" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>203</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2325</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>205</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199" t="n">
+        <v>45</v>
+      </c>
+      <c r="D199" t="n">
+        <v>10</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E200" t="n">
+        <v>35</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11765</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E201" t="n">
+        <v>70</v>
+      </c>
+      <c r="F201" t="n">
+        <v>14420</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8140</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5095</v>
+      </c>
+      <c r="E203" t="n">
+        <v>45</v>
+      </c>
+      <c r="F203" t="n">
+        <v>12280</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" t="s">
+        <v>211</v>
+      </c>
+      <c r="C204" t="n">
+        <v>60</v>
+      </c>
+      <c r="D204" t="n">
+        <v>35</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205" t="n">
+        <v>110</v>
+      </c>
+      <c r="D205" t="n">
+        <v>70</v>
+      </c>
+      <c r="E205" t="n">
+        <v>10</v>
+      </c>
+      <c r="F205" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>213</v>
+      </c>
+      <c r="C206" t="n">
+        <v>8865</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E206" t="n">
+        <v>410</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11805</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>214</v>
+      </c>
+      <c r="C207" t="n">
+        <v>80</v>
+      </c>
+      <c r="D207" t="n">
+        <v>15</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" t="n">
+        <v>70</v>
+      </c>
+      <c r="D209" t="n">
+        <v>10</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210" t="n">
+        <v>35</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+      <c r="C211" t="n">
+        <v>130</v>
+      </c>
+      <c r="D211" t="n">
+        <v>90</v>
+      </c>
+      <c r="E211" t="n">
+        <v>10</v>
+      </c>
+      <c r="F211" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>219</v>
+      </c>
+      <c r="C212" t="n">
+        <v>155</v>
+      </c>
+      <c r="D212" t="n">
+        <v>20</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" t="n">
+        <v>235</v>
+      </c>
+      <c r="D213" t="n">
+        <v>120</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" t="n">
+        <v>55</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
+        <v>222</v>
+      </c>
+      <c r="C215" t="n">
+        <v>700</v>
+      </c>
+      <c r="D215" t="n">
+        <v>280</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>